--- a/ConsoleApp1/Sample/1-StatFile.xlsx
+++ b/ConsoleApp1/Sample/1-StatFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>Component Index</x:t>
   </x:si>
@@ -25,16 +25,19 @@
     <x:t>Average Similarity</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">D:/Source/2018170480/ , D:/Source/2018170497/ , D:/Source/2018170372/ </x:t>
+    <x:t>Component Count</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">D:/Source/2018170139/ , D:/Source/2018170209/ , D:/Source/2018170261/ , D:/Source/2017170394/ , D:/Source/2018170387/ , D:/Source/2018170512/ , D:/Source/2018170284/ , D:/Source/2017170433/ , D:/Source/2018170011/ , D:/Source/2017170201/ , D:/Source/2018170417/ </x:t>
+    <x:t>2018170314, 2018170483, 2018170534</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">D:/Source/2018170340/ , D:/Source/2018170558/ </x:t>
+    <x:t>2017170201, 2017170394, 2017170433, 2018170011, 2018170139, 2018170209, 2018170261, 2018170284, 2018170387, 2018170417, 2018170512</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">D:/Source/2018170483/ , D:/Source/2018170534/ , D:/Source/2018170314/ </x:t>
+    <x:t>2018170340, 2018170558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018170372, 2018170480, 2018170497</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -385,18 +388,19 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C5"/>
+  <x:dimension ref="A1:D5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="17.040625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="244.510625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="128.620625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="17.490625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -406,49 +410,64 @@
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>32.2</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
-        <x:v>22.8</x:v>
-      </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>29.5</x:v>
       </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:3">
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>24</x:v>
       </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:3">
+    <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>32.2</x:v>
+        <x:v>22.8</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -699,9 +718,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2B8D65E-72E3-418D-A302-CB181A62FCC6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8DAA243-D3DA-4A14-87CC-C3BC0A82D330}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D476AE0C-B952-4869-9B2D-33FA83930CC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7822CA3-C9BE-4779-BF84-6831B124306B}"/>
 </file>